--- a/Subgroup1/biblio/RDBES Data Model CL CE.xlsx
+++ b/Subgroup1/biblio/RDBES Data Model CL CE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBESpublic\RDBES\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="26535" windowHeight="13575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Commercial Landing CL" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="356">
   <si>
     <t>Type</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Order</t>
-  </si>
-  <si>
-    <t>Short Description</t>
   </si>
   <si>
     <t>Description</t>
@@ -276,9 +273,6 @@
     <t>The estimated scientific weight. Can be the same as official weight or adjusted.</t>
   </si>
   <si>
-    <t>Number of the active unique vessels within the aggregation level. This field should not be aggregated or use for any other purpose that check the number of vessels at the aggregation level of the data.</t>
-  </si>
-  <si>
     <t>Explaining the differences between official weight and scientific weight. Can be “Sample data”, “Unallocated catches”, “Area misreporing”, “Correction for overweight in boxes”.</t>
   </si>
   <si>
@@ -608,6 +602,9 @@
 Division in Mediterranean and Black Seas (e.g. 37.1.1) and NAFO (e.g. 21.1A).</t>
   </si>
   <si>
+    <t>RS_NationalProgram</t>
+  </si>
+  <si>
     <t>ISO_3166</t>
   </si>
   <si>
@@ -626,9 +623,6 @@
     <t>SpecWoRMS</t>
   </si>
   <si>
-    <t xml:space="preserve">SpecASFIS </t>
-  </si>
-  <si>
     <t>RS_LandingCategory</t>
   </si>
   <si>
@@ -636,12 +630,6 @@
   </si>
   <si>
     <t>RS_CommercialSizeCategoryScale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CommercialSizeCategory     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VesselLengthCategory       </t>
   </si>
   <si>
     <t>RS_ExplainDifference</t>
@@ -697,15 +685,9 @@
     <t>For estimated data: A semi‐quantitative scale ranging from +++ (large overestimate) to −−− (large underestimate) can be used as in Hyder et al 2017.</t>
   </si>
   <si>
-    <t>LOCODE_Harbour</t>
-  </si>
-  <si>
     <t>CLcommercialSizeCategory</t>
   </si>
   <si>
-    <t>RS_qualitativeBias</t>
-  </si>
-  <si>
     <t>National fishing activity</t>
   </si>
   <si>
@@ -715,28 +697,16 @@
     <t>CLnatFishAct</t>
   </si>
   <si>
-    <t>RS_nationalFishingActivity</t>
-  </si>
-  <si>
     <t>Metier6_FishingActivity</t>
   </si>
   <si>
-    <t xml:space="preserve">Fishing activity (like métier) – National level as defined by each country. </t>
-  </si>
-  <si>
     <t>Harbour_LOCODE</t>
   </si>
   <si>
     <t>RS_DataTypeOfScientificWE</t>
   </si>
   <si>
-    <t>RS_dataSourceOfScientificWE</t>
-  </si>
-  <si>
-    <t>RS_DataTypeForScientificWE</t>
-  </si>
-  <si>
-    <t>RS_DataSourceForScientificWE</t>
+    <t>National Programme behind scientific effort</t>
   </si>
   <si>
     <t xml:space="preserve"> Metier 6 fishing activity</t>
@@ -757,9 +727,6 @@
     <t>RS_FishingTechnique</t>
   </si>
   <si>
-    <t>Indicating which fishing technique there have been used. For EU FDI data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indicating if the fishery is in the deep sea EU regulation ‘Yes’ or not ‘No’. For EU FDI data. </t>
   </si>
   <si>
@@ -769,9 +736,6 @@
     <t>CLdeepSeaReg</t>
   </si>
   <si>
-    <t>RS_deepSeaRegulation</t>
-  </si>
-  <si>
     <t>Scientific number of hauls/sets</t>
   </si>
   <si>
@@ -841,9 +805,6 @@
     <t>CEIBmitiDev</t>
   </si>
   <si>
-    <t>RS_incidentialByCatchMitigationDevice</t>
-  </si>
-  <si>
     <t>Official vessel kW*Fishing hours.  It is fine to include partial data.</t>
   </si>
   <si>
@@ -854,9 +815,6 @@
   </si>
   <si>
     <t>Sampling scheme</t>
-  </si>
-  <si>
-    <t>RS_SamplingScheme</t>
   </si>
   <si>
     <t>Lan': Landings categorised as above minimum reference size
@@ -867,9 +825,6 @@
     <t xml:space="preserve">The intended usage at the time of landing. Codes: “Ind” = industry or “HuC” = human consumption or “None” for logbook registered discards. </t>
   </si>
   <si>
-    <t>Sales value in Euro of the field official weight 'CLofficialWeight'. If nessesary the estimated value can be reported. Please report the data source in the field 'CLdataSourceOfScientificWeight'. If logbook registered discards, put NA. Exchange rate by month can be found here: http://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=ei_mfrt_m&amp;lang=en</t>
-  </si>
-  <si>
     <t>CLsciLanRSE</t>
   </si>
   <si>
@@ -913,7 +868,7 @@
     <t>Incidential by catch mitigation devices: Sorting grid, functional pingers, seal excluder device and turtle excluder device, unknown, None.</t>
   </si>
   <si>
-    <t>GSA subarea, mandatory for FAO area 37 (Mediterranean and Black Sea). (Use 'NA' if not fishing in the area)</t>
+    <t>Sampling scheme behind scientific weight e.g. national program (from code list).</t>
   </si>
   <si>
     <t>0-999</t>
@@ -932,16 +887,6 @@
 </t>
   </si>
   <si>
-    <t>“Official”: for data coming from official data (e.g. logbooks, sales notes, declarative forms).
-“Estimate”: for data coming from estimates based on sampling
-Do not provide overlapping data.</t>
-  </si>
-  <si>
-    <t>“Official”: for data coming from official data (e.g. logbooks, sales notes, declarative forms).
-“Estimate”: for data coming from estimates based on sampling
-Dot not provide overlapping data.</t>
-  </si>
-  <si>
     <t>Relative Standard Error of the estimated effort. Report as percentage (%).
 For official data: Do not fill in this field</t>
   </si>
@@ -992,6 +937,12 @@
     <t>CLIBmitiDev</t>
   </si>
   <si>
+    <t>CEnationalProgramBehScientificEffort</t>
+  </si>
+  <si>
+    <t>CEnatProgSciEff</t>
+  </si>
+  <si>
     <t>CEnationalFishingActivity</t>
   </si>
   <si>
@@ -1553,8 +1504,362 @@
     <t>Ver 18.1.4</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">If a trip covers more than one area/rectangle/métier/month the area/rectangle/métier/month with the most </t>
+    <t>Number of active unique vessels within the aggregation level. This field should not be aggregated or use for any other purpose that check the number of vessels at the aggregation level of the data.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indicating which fishing technique there have been used. For EU FDI data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>This indicates the fishing technique of the vessel for that year - the fishing technique value is typically used by economists and covers that vessel's activity for the whole year.  This is the same definition as used in the EU Fisheries Depdendent Information data call.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indicating which fishing technique there have been used. For EU FDI data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>This indicates the fishing technique of the vessel for that year - the fishing technique value is typically used by economists and covers that vessel's activity for the whole year.  This is the same definition as used in the EU Fisheries Depdendent Information data call.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“Official”: for data coming from official </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>sources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> such </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">as those defined by the Control Regulation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(e.g. logbooks, sales notes, declarative forms).  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>This could also include official estimates of weights or values.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+“Estimate”: for data coming from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>scientific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> estimates based on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>scientific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sampling.
+Do not provide overlapping data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“Official”: for data coming from official </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>sources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> such </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">as those defined by the Control Regulation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(e.g. logbooks, sales notes, declarative forms).  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>This could also include official estimates of effort.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+“Estimate”: for data coming from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>scientific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> estimates based on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>scientific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sampling.
+Do not provide overlapping data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fishing activity (like métier) – National level as defined by each country.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Each code within this vocabulary should have the relevent ISO_3166 country code pre-pended e.g. "DK_OTB_...".  Countries can request new codes to be added to the list by emailing ICES Data Centre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fishing activity (like métier) – National level as defined by each country. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Each code within this vocabulary should have the relevent ISO_3166 country code pre-pended e.g. "DK_OTB_...".  Countries can request new codes to be added to the list by emailing ICES Data Centre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GSA subarea, mandatory for FAO area 37 (Mediterranean and Black Sea). (Use '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>NotApplicable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>' if not fishing in the area)</t>
+    </r>
+  </si>
+  <si>
+    <t>RS_DataSourceOfScientificWE</t>
+  </si>
+  <si>
+    <t>SpecASFIS</t>
+  </si>
+  <si>
+    <t>RS_CommercialSizeCategory</t>
+  </si>
+  <si>
+    <t>RS_NationalFishingActivity</t>
+  </si>
+  <si>
+    <t>RS_VesselLengthCategory</t>
+  </si>
+  <si>
+    <t>YesNoFields</t>
+  </si>
+  <si>
+    <t>RS_QualitativeBias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sales value in Euro of the field official weight 'CLofficialWeight'. If nessesary the estimated value can be reported. Please report the data source in the field </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLdataSourceLandingsValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>'CLdataSourceOfScientificWeight'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>. If logbook registered discards, put NA. Exchange rate by month can be found here: http://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=ei_mfrt_m&amp;lang=en</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fishing days after reallocation (e.g. based on VMS analysis)
+Can be equal to official </t>
     </r>
     <r>
       <rPr>
@@ -1564,7 +1869,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Days at Sea'</t>
+      <t xml:space="preserve">fishing </t>
     </r>
     <r>
       <rPr>
@@ -1573,13 +1878,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> is used (see example in E/CL documentation). A trip is defined as the period between when a vessel departs from a port (or factory ship) and arrives at a port (or factory ship) for discharge of the catch.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fishing days after reallocation (e.g. based on VMS analysis)
-Can be equal to official </t>
+      <t>days.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a trip covers more than one area/rectangle/métier/month the area/rectangle/métier/month with the most </t>
     </r>
     <r>
       <rPr>
@@ -1589,7 +1893,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>fishing</t>
+      <t>'Days at Sea'</t>
     </r>
     <r>
       <rPr>
@@ -1598,27 +1902,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> days.</t>
-    </r>
-  </si>
-  <si>
-    <t>CEsamplingScheme</t>
-  </si>
-  <si>
-    <t>CEsampScheme</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sampling scheme behind scientific weight e.g. national program (from code list). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>The countries should send an email to RDBsupport@ices.dk and request their codes for their national programs/sampling schemes.</t>
+      <t xml:space="preserve"> is used (see example in E/CL documentation). A trip is defined as the period between when a vessel departs from a port (or factory ship) and arrives at a port (or factory ship) for discharge of the catch.</t>
     </r>
   </si>
 </sst>
@@ -1626,7 +1910,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1694,6 +1978,19 @@
       <family val="2"/>
     </font>
     <font>
+      <strike/>
+      <sz val="9"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1701,7 +1998,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,12 +2014,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,15 +2090,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2093,41 +2380,41 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="12.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="41.73046875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
@@ -2138,40 +2425,40 @@
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>113</v>
+      <c r="I1" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="11.65" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8">
         <v>1</v>
@@ -2180,10 +2467,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>4</v>
@@ -2194,14 +2481,14 @@
       <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
@@ -2210,10 +2497,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>4</v>
@@ -2224,16 +2511,16 @@
       <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>229</v>
+      <c r="I4" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
@@ -2242,10 +2529,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>4</v>
@@ -2256,28 +2543,28 @@
       <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>230</v>
+      <c r="I5" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>4</v>
@@ -2288,16 +2575,16 @@
       <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="81.400000000000006" x14ac:dyDescent="0.35">
+      <c r="I6" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="8">
         <v>5</v>
@@ -2306,10 +2593,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>4</v>
@@ -2320,16 +2607,16 @@
       <c r="H7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>192</v>
+      <c r="I7" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="8">
         <v>6</v>
@@ -2338,10 +2625,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>4</v>
@@ -2352,16 +2639,16 @@
       <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>191</v>
+      <c r="I8" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="8">
         <v>7</v>
@@ -2370,10 +2657,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>4</v>
@@ -2384,16 +2671,16 @@
       <c r="H9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>191</v>
+      <c r="I9" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="11.65" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="8">
         <v>8</v>
@@ -2402,10 +2689,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>14</v>
@@ -2416,16 +2703,16 @@
       <c r="H10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="11.65" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="8">
         <v>9</v>
@@ -2434,10 +2721,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>14</v>
@@ -2448,16 +2735,16 @@
       <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="11.65" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8">
         <v>10</v>
@@ -2466,10 +2753,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>14</v>
@@ -2480,16 +2767,16 @@
       <c r="H12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="81.400000000000006" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="8">
         <v>11</v>
@@ -2498,10 +2785,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>4</v>
@@ -2512,16 +2799,16 @@
       <c r="H13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>193</v>
+      <c r="I13" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="8">
         <v>12</v>
@@ -2530,10 +2817,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>4</v>
@@ -2544,16 +2831,16 @@
       <c r="H14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>194</v>
+      <c r="I14" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="8">
         <v>13</v>
@@ -2562,10 +2849,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>21</v>
@@ -2576,28 +2863,28 @@
       <c r="H15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>195</v>
+      <c r="I15" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="8">
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>4</v>
@@ -2608,60 +2895,60 @@
       <c r="H16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>302</v>
+      <c r="I16" s="17" t="s">
+        <v>285</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="8">
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>5</v>
+      <c r="G17" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>283</v>
+      <c r="I17" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="8">
         <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>14</v>
@@ -2672,16 +2959,16 @@
       <c r="H18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>196</v>
+      <c r="I18" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="11.65" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="8">
         <v>17</v>
@@ -2690,10 +2977,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>4</v>
@@ -2704,16 +2991,16 @@
       <c r="H19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>197</v>
+      <c r="I19" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="8">
         <v>18</v>
@@ -2722,10 +3009,10 @@
         <v>23</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>4</v>
@@ -2736,16 +3023,16 @@
       <c r="H20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>198</v>
+      <c r="I20" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="8">
         <v>19</v>
@@ -2754,10 +3041,10 @@
         <v>24</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
@@ -2766,28 +3053,28 @@
       <c r="H21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>199</v>
+      <c r="I21" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>4</v>
@@ -2798,16 +3085,16 @@
       <c r="H22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>200</v>
+      <c r="I22" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="8">
         <v>21</v>
@@ -2816,13 +3103,13 @@
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>17</v>
@@ -2830,28 +3117,28 @@
       <c r="H23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>201</v>
+      <c r="I23" s="17" t="s">
+        <v>348</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="8">
         <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>4</v>
@@ -2862,28 +3149,28 @@
       <c r="H24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>225</v>
+      <c r="I24" s="17" t="s">
+        <v>349</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="8">
         <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>4</v>
@@ -2894,28 +3181,28 @@
       <c r="H25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>226</v>
+      <c r="I25" s="17" t="s">
+        <v>219</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" s="8">
         <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>4</v>
@@ -2926,28 +3213,28 @@
       <c r="H26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>270</v>
+      <c r="I26" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="8">
         <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>4</v>
@@ -2958,16 +3245,16 @@
       <c r="H27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>228</v>
+      <c r="I27" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="8">
         <v>26</v>
@@ -2976,10 +3263,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>4</v>
@@ -2990,28 +3277,28 @@
       <c r="H28" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29" s="8">
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>4</v>
@@ -3022,28 +3309,28 @@
       <c r="H29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>238</v>
+      <c r="I29" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="8">
         <v>28</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>4</v>
@@ -3054,14 +3341,14 @@
       <c r="H30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>243</v>
+      <c r="I30" s="17" t="s">
+        <v>351</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="8">
         <v>29</v>
@@ -3070,10 +3357,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>14</v>
@@ -3084,12 +3371,12 @@
       <c r="H31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="8">
         <v>30</v>
@@ -3098,10 +3385,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>14</v>
@@ -3112,12 +3399,12 @@
       <c r="H32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="8">
         <v>31</v>
@@ -3126,10 +3413,10 @@
         <v>31</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>4</v>
@@ -3140,26 +3427,26 @@
       <c r="H33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>203</v>
+      <c r="I33" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="81.400000000000006" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="108" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>32</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>14</v>
@@ -3170,12 +3457,12 @@
       <c r="H34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>33</v>
@@ -3184,10 +3471,10 @@
         <v>33</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>14</v>
@@ -3198,24 +3485,24 @@
       <c r="H35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>34</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>14</v>
@@ -3224,26 +3511,26 @@
         <v>17</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I36" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="I36" s="17"/>
       <c r="J36" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>35</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>14</v>
@@ -3252,26 +3539,26 @@
         <v>17</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I37" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="I37" s="17"/>
       <c r="J37" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="34.9" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>4</v>
@@ -3282,14 +3569,16 @@
       <c r="H38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="17" t="s">
+        <v>352</v>
+      </c>
       <c r="J38" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3305,79 +3594,80 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.73046875" customWidth="1"/>
-    <col min="5" max="5" width="15.265625" customWidth="1"/>
-    <col min="10" max="10" width="36.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
@@ -3386,10 +3676,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>4</v>
@@ -3400,26 +3690,26 @@
       <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="58.15" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="96" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>4</v>
@@ -3428,30 +3718,30 @@
         <v>5</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>231</v>
+        <v>45</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="46.5" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>4</v>
@@ -3462,28 +3752,28 @@
       <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>232</v>
+      <c r="I5" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.45">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>356</v>
+      <c r="C6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>4</v>
@@ -3494,16 +3784,16 @@
       <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="I6" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="8">
         <v>5</v>
@@ -3512,10 +3802,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>4</v>
@@ -3526,16 +3816,16 @@
       <c r="H7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>191</v>
+      <c r="I7" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="8">
         <v>6</v>
@@ -3544,10 +3834,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>14</v>
@@ -3558,16 +3848,16 @@
       <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="8">
         <v>7</v>
@@ -3576,10 +3866,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>14</v>
@@ -3590,16 +3880,16 @@
       <c r="H9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="8">
         <v>8</v>
@@ -3608,10 +3898,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>14</v>
@@ -3622,16 +3912,16 @@
       <c r="H10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="69.75" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="84" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="8">
         <v>9</v>
@@ -3640,10 +3930,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>4</v>
@@ -3654,16 +3944,16 @@
       <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>193</v>
+      <c r="I11" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="35.65" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8">
         <v>10</v>
@@ -3672,10 +3962,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>4</v>
@@ -3686,16 +3976,16 @@
       <c r="H12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>194</v>
+      <c r="I12" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="35.65" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="8">
         <v>11</v>
@@ -3704,10 +3994,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
@@ -3718,28 +4008,28 @@
       <c r="H13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>195</v>
+      <c r="I13" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="8">
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>4</v>
@@ -3750,28 +4040,28 @@
       <c r="H14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>302</v>
+      <c r="I14" s="17" t="s">
+        <v>285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="58.15" x14ac:dyDescent="0.45">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="8">
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>4</v>
@@ -3782,28 +4072,28 @@
       <c r="H15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>283</v>
+      <c r="I15" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="34.9" x14ac:dyDescent="0.45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="8">
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>4</v>
@@ -3814,28 +4104,28 @@
       <c r="H16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>225</v>
+      <c r="I16" s="17" t="s">
+        <v>349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="34.9" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="8">
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>4</v>
@@ -3846,28 +4136,28 @@
       <c r="H17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>226</v>
+      <c r="I17" s="17" t="s">
+        <v>219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="8">
         <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>4</v>
@@ -3878,28 +4168,28 @@
       <c r="H18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>267</v>
+      <c r="I18" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="35.65" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="8">
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>4</v>
@@ -3910,28 +4200,28 @@
       <c r="H19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>219</v>
+      <c r="I19" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="35.65" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="8">
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>4</v>
@@ -3942,28 +4232,28 @@
       <c r="H20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="24" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:11" ht="96" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="8">
         <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>4</v>
@@ -3974,28 +4264,28 @@
       <c r="H21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>238</v>
+      <c r="I21" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="24" x14ac:dyDescent="0.45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>4</v>
@@ -4006,195 +4296,195 @@
       <c r="H22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>243</v>
+      <c r="I22" s="17" t="s">
+        <v>351</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="117" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="144.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="8">
         <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="I23" s="17"/>
       <c r="J23" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="82.15" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="8">
         <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="F24" s="8" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="I24" s="17"/>
       <c r="J24" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="8">
         <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="I25" s="17"/>
       <c r="J25" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="8">
         <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="I26" s="17"/>
       <c r="J26" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="8">
         <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="I27" s="17"/>
       <c r="J27" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="35.65" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="8">
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="I28" s="17"/>
       <c r="J28" s="10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="8">
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>14</v>
@@ -4203,26 +4493,26 @@
         <v>17</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="I29" s="17"/>
       <c r="J29" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="34.9" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="8">
         <v>28</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>14</v>
@@ -4231,250 +4521,250 @@
         <v>17</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="I30" s="17"/>
       <c r="J30" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="8">
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="I31" s="17"/>
       <c r="J31" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="47.25" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="8">
         <v>30</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="I32" s="17"/>
       <c r="J32" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="35.65" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="8">
         <v>31</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="I33" s="17"/>
       <c r="J33" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="35.65" x14ac:dyDescent="0.45">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="8">
         <v>32</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="I34" s="17"/>
       <c r="J34" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="8">
         <v>33</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I35" s="9"/>
+        <v>334</v>
+      </c>
+      <c r="I35" s="17"/>
       <c r="J35" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="8">
         <v>34</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I36" s="9"/>
+        <v>334</v>
+      </c>
+      <c r="I36" s="17"/>
       <c r="J36" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="8">
         <v>35</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I37" s="9"/>
+        <v>334</v>
+      </c>
+      <c r="I37" s="17"/>
       <c r="J37" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="8">
         <v>36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I38" s="9"/>
+        <v>334</v>
+      </c>
+      <c r="I38" s="17"/>
       <c r="J38" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="8">
         <v>37</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>14</v>
@@ -4483,26 +4773,26 @@
         <v>17</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="I39" s="9"/>
+        <v>335</v>
+      </c>
+      <c r="I39" s="17"/>
       <c r="J39" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="8">
         <v>38</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>14</v>
@@ -4511,26 +4801,26 @@
         <v>17</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I40" s="9"/>
+        <v>334</v>
+      </c>
+      <c r="I40" s="17"/>
       <c r="J40" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8">
         <v>39</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>14</v>
@@ -4539,26 +4829,26 @@
         <v>5</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I41" s="9"/>
+        <v>334</v>
+      </c>
+      <c r="I41" s="17"/>
       <c r="J41" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="8">
         <v>40</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>14</v>
@@ -4567,26 +4857,26 @@
         <v>5</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I42" s="9"/>
+        <v>334</v>
+      </c>
+      <c r="I42" s="17"/>
       <c r="J42" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="23.25" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="8">
         <v>41</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>14</v>
@@ -4595,14 +4885,14 @@
         <v>17</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I43" s="9"/>
+        <v>336</v>
+      </c>
+      <c r="I43" s="17"/>
       <c r="J43" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="34.9" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="8">
         <v>42</v>
@@ -4611,10 +4901,10 @@
         <v>33</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>14</v>
@@ -4623,26 +4913,26 @@
         <v>5</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="I44" s="9"/>
+        <v>324</v>
+      </c>
+      <c r="I44" s="17"/>
       <c r="J44" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="35.65" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="8">
         <v>43</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>14</v>
@@ -4651,14 +4941,14 @@
         <v>17</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I45" s="9"/>
+        <v>276</v>
+      </c>
+      <c r="I45" s="17"/>
       <c r="J45" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="35.65" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="8">
         <v>44</v>
@@ -4667,10 +4957,10 @@
         <v>35</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>4</v>
@@ -4681,11 +4971,11 @@
       <c r="H46" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>221</v>
+      <c r="I46" s="17" t="s">
+        <v>352</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
